--- a/4 курс/7_semester/ТЯПиМТ/theory_pl&tm/lr3/tests/LL.xlsx
+++ b/4 курс/7_semester/ТЯПиМТ/theory_pl&tm/lr3/tests/LL.xlsx
@@ -415,7 +415,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G226"/>
+  <dimension ref="A1:G242"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -503,11 +503,11 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>namespace unsigned signed int double float char long short void</t>
+          <t>namespace unsigned signed int double float char long short void \} ⊥</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -526,23 +526,23 @@
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>left: K0</t>
+          <t>right: REQ_S</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>} ⊥</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -551,7 +551,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -568,16 +568,16 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>right: REQ_S</t>
+          <t>right: INIT</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>namespace unsigned signed int double float char long short void \} ⊥</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -586,7 +586,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -608,11 +608,11 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>namespace unsigned signed int double float char long short void</t>
+          <t>namespace unsigned signed int double float char long short void \} ⊥</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -638,16 +638,16 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>right: INIT</t>
+          <t>left: S</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>namespace unsigned signed int double float char long short void</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -666,23 +666,23 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>right: e</t>
+          <t>left: S</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>} ⊥</t>
+          <t>, ; [1-9] [a-zA-Z_] \( \) \.\.\. \[ \] \{ \} char double float int long namespace short signed unsigned void ⊥</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -696,7 +696,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -708,7 +708,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>left: S</t>
+          <t>right: REQ_S</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -736,23 +736,23 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>left: S</t>
+          <t>right: e</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>( ) , ... ; [ [1-9] [a-zA-Z_] ] char double float int long namespace short signed unsigned void { }</t>
+          <t>, ; [1-9] [a-zA-Z_] \( \) \.\.\. \[ \] \{ \} char double float int long namespace short signed unsigned void ⊥</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -766,7 +766,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
@@ -778,7 +778,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>right: REQ_S</t>
+          <t>left: REQ_S</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -787,7 +787,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -813,20 +813,20 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>right: e</t>
+          <t>right: \s</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>( ) , ... ; [ [1-9] [a-zA-Z_] ] char double float int long namespace short signed unsigned void { }</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -836,7 +836,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -848,16 +848,16 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>left: REQ_S</t>
+          <t>right: S</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>\s , ; [1-9] [a-zA-Z_] \( \) \.\.\. \[ \] \{ \} char double float int long namespace short signed unsigned void ⊥</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -883,20 +883,20 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>right: \s</t>
+          <t>left: INIT</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>namespace</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -911,23 +911,23 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>right: S</t>
+          <t>left: INIT</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>\s ( ) , ... ; [ [1-9] [a-zA-Z_] ] char double float int long namespace short signed unsigned void { }</t>
+          <t>unsigned signed int double float char long short void</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -946,7 +946,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
@@ -958,11 +958,11 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>namespace</t>
+          <t>\} ⊥</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -981,27 +981,27 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>left: INIT</t>
+          <t>right: namespace</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>unsigned signed int double float char long short void</t>
+          <t>namespace</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1023,25 +1023,25 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>right: namespace</t>
+          <t>right: REQ_S</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>namespace</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1058,16 +1058,16 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>right: REQ_S</t>
+          <t>right: ID_FUNC</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>[a-zA-Z_]</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>13</v>
+        <v>177</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1093,16 +1093,16 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>right: ID_FUNC</t>
+          <t>right: S</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>[a-zA-Z_]</t>
+          <t>\s \{</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1128,25 +1128,25 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>right: S</t>
+          <t>right: \{</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>\s {</t>
+          <t>\{</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1163,25 +1163,25 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>right: {</t>
+          <t>right: K0</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>{</t>
+          <t>\s namespace unsigned signed int double float char long short void \}</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1198,25 +1198,25 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>right: K0</t>
+          <t>right: \}</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>\s namespace unsigned signed int double float char long short void }</t>
+          <t>\}</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1233,20 +1233,20 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>right: }</t>
+          <t>right: K0</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>}</t>
+          <t>\s namespace unsigned signed int double float char long short void \} ⊥</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -1268,16 +1268,16 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>right: K0</t>
+          <t>right: MOD_TYPE</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>\s namespace unsigned signed int double float char long short void } ⊥</t>
+          <t>unsigned signed int double float char long short void</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1286,7 +1286,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1303,16 +1303,16 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>right: MOD_TYPE</t>
+          <t>right: ID_FUNC</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>unsigned signed int double float char long short void</t>
+          <t>[a-zA-Z_]</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>41</v>
+        <v>177</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1338,16 +1338,16 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>right: ID_FUNC</t>
+          <t>right: S</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>[a-zA-Z_]</t>
+          <t>\s \(</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>165</v>
+        <v>7</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1373,25 +1373,25 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>right: S</t>
+          <t>right: \(</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>\s (</t>
+          <t>\(</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1408,25 +1408,25 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>right: (</t>
+          <t>right: PARAMS0</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>(</t>
+          <t>\s unsigned signed int double float char long short void \)</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>30</v>
+        <v>214</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1443,25 +1443,25 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>right: PARAMS0</t>
+          <t>right: \)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>\s unsigned signed int double float char long short void )</t>
+          <t>\)</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>198</v>
+        <v>31</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1478,25 +1478,25 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>right: )</t>
+          <t>right: S</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>\s ; \{</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1513,16 +1513,16 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>right: S</t>
+          <t>right: BODY</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>\s ; {</t>
+          <t>; \{</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1548,16 +1548,16 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>right: BODY</t>
+          <t>right: K0</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>; {</t>
+          <t>\s namespace unsigned signed int double float char long short void \} ⊥</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1566,7 +1566,7 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
@@ -1583,16 +1583,16 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>right: K0</t>
+          <t>right: e</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>\s namespace unsigned signed int double float char long short void } ⊥</t>
+          <t>\} ⊥</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1606,7 +1606,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
@@ -1658,7 +1658,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>{</t>
+          <t>\{</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1723,12 +1723,12 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>right: {</t>
+          <t>right: \{</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>{</t>
+          <t>\{</t>
         </is>
       </c>
       <c r="C38" t="n">
@@ -1763,11 +1763,11 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>\s }</t>
+          <t>\s \}</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1793,12 +1793,12 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>right: }</t>
+          <t>right: \}</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>}</t>
+          <t>\}</t>
         </is>
       </c>
       <c r="C40" t="n">
@@ -1907,7 +1907,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1942,7 +1942,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -1951,7 +1951,7 @@
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
@@ -1968,16 +1968,16 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>left: MOD</t>
+          <t>right: REQ_S</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>unsigned</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -1996,7 +1996,7 @@
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -2008,7 +2008,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>signed</t>
+          <t>unsigned</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -2031,27 +2031,27 @@
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>right: unsigned</t>
+          <t>left: MOD</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>unsigned</t>
+          <t>signed</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2061,7 +2061,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2073,12 +2073,12 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>right: signed</t>
+          <t>right: unsigned</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>signed</t>
+          <t>unsigned</t>
         </is>
       </c>
       <c r="C48" t="n">
@@ -2108,20 +2108,20 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>left: MOD_TYPE_NONVOID</t>
+          <t>right: signed</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>unsigned signed</t>
+          <t>signed</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2131,12 +2131,12 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -2148,11 +2148,11 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>int double float char long short</t>
+          <t>unsigned signed</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -2171,23 +2171,23 @@
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>right: MOD</t>
+          <t>left: MOD_TYPE_NONVOID</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>unsigned signed</t>
+          <t>int double float char long short</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -2196,7 +2196,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2213,16 +2213,16 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>right: REQ_S</t>
+          <t>right: MOD</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>unsigned signed</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -2248,16 +2248,16 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>right: TYPE</t>
+          <t>right: REQ_S</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>int double float char long short</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>57</v>
+        <v>11</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -2266,7 +2266,7 @@
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -2292,7 +2292,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -2318,16 +2318,16 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>left: VOID</t>
+          <t>right: TYPE</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>void</t>
+          <t>int double float char long short</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -2353,7 +2353,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>right: void</t>
+          <t>left: VOID</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -2362,11 +2362,11 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
@@ -2376,7 +2376,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
@@ -2388,20 +2388,20 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>left: TYPE</t>
+          <t>right: void</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>void</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>63</v>
+        <v>0</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -2411,12 +2411,12 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -2428,11 +2428,11 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>double</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -2463,11 +2463,11 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>float</t>
+          <t>double</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -2498,11 +2498,11 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>char</t>
+          <t>float</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -2533,11 +2533,11 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>char</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2568,11 +2568,11 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -2591,27 +2591,27 @@
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>right: int</t>
+          <t>left: TYPE</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>short</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
@@ -2633,25 +2633,25 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>right: REQ_S</t>
+          <t>right: int</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
@@ -2668,16 +2668,16 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>right: INT</t>
+          <t>right: REQ_S</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>long short [a-zA-Z_]</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>79</v>
+        <v>11</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2686,7 +2686,7 @@
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2703,20 +2703,20 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>right: double</t>
+          <t>right: INT</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>double</t>
+          <t>long short [a-zA-Z_]</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
@@ -2738,25 +2738,25 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>right: REQ_S</t>
+          <t>right: double</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>double</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2773,16 +2773,16 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>right: DOUBLE</t>
+          <t>right: REQ_S</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>long [a-zA-Z_]</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>84</v>
+        <v>11</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2791,7 +2791,7 @@
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2808,20 +2808,20 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>right: float</t>
+          <t>right: DOUBLE</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>float</t>
+          <t>long [a-zA-Z_]</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2843,20 +2843,20 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>right: REQ_S</t>
+          <t>right: float</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>float</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
@@ -2878,20 +2878,20 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>right: char</t>
+          <t>right: REQ_S</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>char</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>72</v>
+        <v>11</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
@@ -2913,20 +2913,20 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>right: REQ_S</t>
+          <t>right: char</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>char</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>13</v>
+        <v>73</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
@@ -2948,20 +2948,20 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>right: long</t>
+          <t>right: REQ_S</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>74</v>
+        <v>11</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
@@ -2983,25 +2983,25 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>right: REQ_S</t>
+          <t>right: long</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>long</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
@@ -3018,16 +3018,16 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>right: LONG</t>
+          <t>right: REQ_S</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>int double [a-zA-Z_]</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>89</v>
+        <v>11</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -3036,7 +3036,7 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
@@ -3053,20 +3053,20 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>right: short</t>
+          <t>right: LONG</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>int double [a-zA-Z_]</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
@@ -3088,25 +3088,25 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>right: REQ_S</t>
+          <t>right: short</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>short</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>13</v>
+        <v>78</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
@@ -3123,16 +3123,16 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>right: SHORT</t>
+          <t>right: REQ_S</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>int [a-zA-Z_]</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>94</v>
+        <v>11</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -3141,7 +3141,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
@@ -3158,16 +3158,16 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>left: INT</t>
+          <t>right: SHORT</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>long short</t>
+          <t>int [a-zA-Z_]</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -3186,7 +3186,7 @@
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -3198,11 +3198,11 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>[a-zA-Z_]</t>
+          <t>long short</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -3221,23 +3221,23 @@
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>right: LENGTH</t>
+          <t>left: INT</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>long short</t>
+          <t>[a-zA-Z_]</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>157</v>
+        <v>84</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -3246,7 +3246,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
@@ -3263,16 +3263,16 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>right: REQ_S</t>
+          <t>right: LENGTH</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>long short</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>13</v>
+        <v>169</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -3281,7 +3281,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
@@ -3298,16 +3298,16 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>right: e</t>
+          <t>right: REQ_S</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>[a-zA-Z_]</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -3321,7 +3321,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
@@ -3333,16 +3333,16 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>left: DOUBLE</t>
+          <t>right: e</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>[a-zA-Z_]</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -3356,12 +3356,12 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -3373,11 +3373,11 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>[a-zA-Z_]</t>
+          <t>long</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -3396,27 +3396,27 @@
       </c>
       <c r="G85" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>right: long</t>
+          <t>left: DOUBLE</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>[a-zA-Z_]</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
@@ -3438,20 +3438,20 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>right: REQ_S</t>
+          <t>right: long</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>long</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>13</v>
+        <v>88</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3473,16 +3473,16 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>right: e</t>
+          <t>right: REQ_S</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>[a-zA-Z_]</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -3496,7 +3496,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
@@ -3508,16 +3508,16 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>left: LONG</t>
+          <t>right: e</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>int double</t>
+          <t>[a-zA-Z_]</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -3531,12 +3531,12 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -3548,11 +3548,11 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>[a-zA-Z_]</t>
+          <t>int double</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -3571,23 +3571,23 @@
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>right: LONGTYPES</t>
+          <t>left: LONG</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>int double</t>
+          <t>[a-zA-Z_]</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>161</v>
+        <v>94</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -3596,7 +3596,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
@@ -3613,16 +3613,16 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>right: REQ_S</t>
+          <t>right: LONGTYPES</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>int double</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>13</v>
+        <v>173</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -3631,7 +3631,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="F92" t="inlineStr">
@@ -3648,16 +3648,16 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>right: e</t>
+          <t>right: REQ_S</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>[a-zA-Z_]</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -3671,7 +3671,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
@@ -3683,16 +3683,16 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>left: SHORT</t>
+          <t>right: e</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>[a-zA-Z_]</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>96</v>
+        <v>0</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -3706,12 +3706,12 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -3723,11 +3723,11 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>[a-zA-Z_]</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -3746,27 +3746,27 @@
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>right: int</t>
+          <t>left: SHORT</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>[a-zA-Z_]</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E96" t="inlineStr">
@@ -3788,20 +3788,20 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>right: REQ_S</t>
+          <t>right: int</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E97" t="inlineStr">
@@ -3823,16 +3823,16 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>right: e</t>
+          <t>right: REQ_S</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>[a-zA-Z_]</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -3846,7 +3846,7 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
@@ -3858,16 +3858,16 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>left: MOD_TYPE_NONVOID_PARAMS</t>
+          <t>right: e</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>unsigned signed</t>
+          <t>[a-zA-Z_]</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -3881,12 +3881,12 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -3898,11 +3898,11 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>int double float char long short</t>
+          <t>unsigned signed</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -3921,23 +3921,23 @@
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>right: MOD</t>
+          <t>left: MOD_TYPE_NONVOID_PARAMS</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>unsigned signed</t>
+          <t>int double float char long short</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -3946,7 +3946,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="F101" t="inlineStr">
@@ -3963,16 +3963,16 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>right: REQ_S</t>
+          <t>right: MOD</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>unsigned signed</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -3998,16 +3998,16 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>right: TYPE_PARAMS</t>
+          <t>right: REQ_S</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>int double float char long short</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>105</v>
+        <v>11</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -4016,7 +4016,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -4068,16 +4068,16 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>left: TYPE_PARAMS</t>
+          <t>right: TYPE_PARAMS</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>int double float char long short</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -4096,7 +4096,7 @@
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
@@ -4108,11 +4108,11 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>double</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -4143,11 +4143,11 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>float</t>
+          <t>double</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -4178,7 +4178,7 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>char</t>
+          <t>float</t>
         </is>
       </c>
       <c r="C108" t="n">
@@ -4213,11 +4213,11 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>char</t>
         </is>
       </c>
       <c r="C109" t="n">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -4248,11 +4248,11 @@
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="C110" t="n">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -4271,27 +4271,27 @@
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>right: int</t>
+          <t>left: TYPE_PARAMS</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>short</t>
         </is>
       </c>
       <c r="C111" t="n">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
@@ -4313,20 +4313,20 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>right: INT_PARAMS</t>
+          <t>right: int</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>\s )</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
@@ -4348,20 +4348,20 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>right: double</t>
+          <t>right: INT_PARAMS</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>double</t>
+          <t>\s , \)</t>
         </is>
       </c>
       <c r="C113" t="n">
-        <v>114</v>
+        <v>129</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4383,20 +4383,20 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>right: DOUBLE_PARAMS</t>
+          <t>right: double</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>\s )</t>
+          <t>double</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
@@ -4418,20 +4418,20 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>right: float</t>
+          <t>right: DOUBLE_PARAMS</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>float</t>
+          <t>\s , \)</t>
         </is>
       </c>
       <c r="C115" t="n">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
@@ -4441,7 +4441,7 @@
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
@@ -4453,16 +4453,16 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>right: char</t>
+          <t>right: float</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>char</t>
+          <t>float</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -4476,7 +4476,7 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
@@ -4488,20 +4488,20 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>right: long</t>
+          <t>right: TAIL_TYPES</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>\s , \)</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4523,20 +4523,20 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>right: LONG_PARAMS</t>
+          <t>right: char</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>\s )</t>
+          <t>char</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
@@ -4558,20 +4558,20 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>right: short</t>
+          <t>right: TAIL_TYPES</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>\s , \)</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -4593,20 +4593,20 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>right: SHORT_PARAMS</t>
+          <t>right: long</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>\s )</t>
+          <t>long</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4628,16 +4628,16 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>left: INT_PARAMS</t>
+          <t>right: LONG_PARAMS</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>\s , \)</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>123</v>
+        <v>149</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -4656,27 +4656,27 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>left: INT_PARAMS</t>
+          <t>right: short</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>short</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
@@ -4698,16 +4698,16 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>right: REQ_S</t>
+          <t>right: SHORT_PARAMS</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>\s , \)</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>13</v>
+        <v>159</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -4716,7 +4716,7 @@
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -4733,12 +4733,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>right: INT_REQ_S</t>
+          <t>left: TAIL_TYPES</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>long short [a-zA-Z_] , )</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -4761,23 +4761,23 @@
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>right: e</t>
+          <t>left: TAIL_TYPES</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>, \)</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>0</v>
+        <v>128</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -4791,7 +4791,7 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="G125" t="inlineStr">
@@ -4803,16 +4803,16 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>left: INT_REQ_S</t>
+          <t>right: REQ_S</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>long short</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>128</v>
+        <v>11</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -4821,7 +4821,7 @@
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -4831,23 +4831,23 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>left: INT_REQ_S</t>
+          <t>right: ID_NON</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>[a-zA-Z_] , )</t>
+          <t>[a-zA-Z_] , \)</t>
         </is>
       </c>
       <c r="C127" t="n">
-        <v>129</v>
+        <v>228</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -4873,16 +4873,16 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>right: LENGTH</t>
+          <t>right: COMMA_NON</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>long short</t>
+          <t>, \)</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>157</v>
+        <v>233</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -4908,16 +4908,16 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>right: ID_NON</t>
+          <t>left: INT_PARAMS</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>[a-zA-Z_] , )</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>212</v>
+        <v>131</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -4936,23 +4936,23 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>left: DOUBLE_PARAMS</t>
+          <t>left: INT_PARAMS</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>, \)</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -4971,23 +4971,23 @@
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>left: DOUBLE_PARAMS</t>
+          <t>right: REQ_S</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>134</v>
+        <v>11</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
@@ -5013,16 +5013,16 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>right: REQ_S</t>
+          <t>right: INT_REQ_S</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>long short [a-zA-Z_] , \)</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>13</v>
+        <v>134</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -5031,7 +5031,7 @@
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -5048,16 +5048,16 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>right: DOUBLE_REQ_S</t>
+          <t>right: COMMA_NON</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>long [a-zA-Z_] , )</t>
+          <t>, \)</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>135</v>
+        <v>233</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -5083,16 +5083,16 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>right: e</t>
+          <t>left: INT_REQ_S</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>long short</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -5106,28 +5106,28 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>left: DOUBLE_REQ_S</t>
+          <t>left: INT_REQ_S</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>[a-zA-Z_] , \)</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -5146,23 +5146,23 @@
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>left: DOUBLE_REQ_S</t>
+          <t>right: LENGTH</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>[a-zA-Z_] , )</t>
+          <t>long short</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -5171,7 +5171,7 @@
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -5188,20 +5188,20 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>right: long</t>
+          <t>right: TAIL_TYPES</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>\s , \)</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
@@ -5211,7 +5211,7 @@
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
@@ -5228,11 +5228,11 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>[a-zA-Z_] , )</t>
+          <t>[a-zA-Z_] , \)</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>left: LONG_PARAMS</t>
+          <t>left: DOUBLE_PARAMS</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
@@ -5293,12 +5293,12 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>left: LONG_PARAMS</t>
+          <t>left: DOUBLE_PARAMS</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>, \)</t>
         </is>
       </c>
       <c r="C140" t="n">
@@ -5337,7 +5337,7 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -5363,12 +5363,12 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>right: LONG_REQ_S</t>
+          <t>right: DOUBLE_REQ_S</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>int double [a-zA-Z_] , )</t>
+          <t>long [a-zA-Z_] , \)</t>
         </is>
       </c>
       <c r="C142" t="n">
@@ -5398,16 +5398,16 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>right: e</t>
+          <t>right: COMMA_NON</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>, \)</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -5421,7 +5421,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -5433,12 +5433,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>left: LONG_REQ_S</t>
+          <t>left: DOUBLE_REQ_S</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>int double</t>
+          <t>long</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -5468,16 +5468,16 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>left: LONG_REQ_S</t>
+          <t>left: DOUBLE_REQ_S</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>[a-zA-Z_] , )</t>
+          <t>[a-zA-Z_] , \)</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -5503,20 +5503,20 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>right: LONGTYPES</t>
+          <t>right: long</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>int double</t>
+          <t>long</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>161</v>
+        <v>147</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
@@ -5538,16 +5538,16 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>right: ID_NON</t>
+          <t>right: TAIL_TYPES</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>[a-zA-Z_] , )</t>
+          <t>\s , \)</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>212</v>
+        <v>124</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -5573,16 +5573,16 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>left: SHORT_PARAMS</t>
+          <t>right: ID_NON</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>[a-zA-Z_] , \)</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>150</v>
+        <v>228</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -5601,23 +5601,23 @@
       </c>
       <c r="G148" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>left: SHORT_PARAMS</t>
+          <t>left: LONG_PARAMS</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -5636,23 +5636,23 @@
       </c>
       <c r="G149" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>right: REQ_S</t>
+          <t>left: LONG_PARAMS</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>, \)</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>13</v>
+        <v>153</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -5661,7 +5661,7 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -5678,16 +5678,16 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>right: SHORT_REQ_S</t>
+          <t>right: REQ_S</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>int [a-zA-Z_] , )</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>153</v>
+        <v>11</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -5696,7 +5696,7 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
@@ -5713,16 +5713,16 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>right: e</t>
+          <t>right: LONG_REQ_S</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>int double [a-zA-Z_] , \)</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -5736,7 +5736,7 @@
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="G152" t="inlineStr">
@@ -5748,16 +5748,16 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>left: SHORT_REQ_S</t>
+          <t>right: COMMA_NON</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>, \)</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>155</v>
+        <v>233</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -5776,19 +5776,19 @@
       </c>
       <c r="G153" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>left: SHORT_REQ_S</t>
+          <t>left: LONG_REQ_S</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>[a-zA-Z_] , )</t>
+          <t>int double</t>
         </is>
       </c>
       <c r="C154" t="n">
@@ -5811,27 +5811,27 @@
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>right: int</t>
+          <t>left: LONG_REQ_S</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>[a-zA-Z_] , \)</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -5841,7 +5841,7 @@
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
@@ -5853,16 +5853,16 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>right: ID_NON</t>
+          <t>right: LONGTYPES</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>[a-zA-Z_] , )</t>
+          <t>int double</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>212</v>
+        <v>173</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -5871,7 +5871,7 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -5888,16 +5888,16 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>left: LENGTH</t>
+          <t>right: TAIL_TYPES</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>\s , \)</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>159</v>
+        <v>124</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -5916,23 +5916,23 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>left: LENGTH</t>
+          <t>right: ID_NON</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>[a-zA-Z_] , \)</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>160</v>
+        <v>228</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -5958,20 +5958,20 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>right: long</t>
+          <t>left: SHORT_PARAMS</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -5981,32 +5981,32 @@
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>right: short</t>
+          <t>left: SHORT_PARAMS</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>, \)</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>163</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
@@ -6016,7 +6016,7 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
@@ -6028,16 +6028,16 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>left: LONGTYPES</t>
+          <t>right: REQ_S</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -6046,7 +6046,7 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -6056,19 +6056,19 @@
       </c>
       <c r="G161" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>left: LONGTYPES</t>
+          <t>right: SHORT_REQ_S</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>double</t>
+          <t>int [a-zA-Z_] , \)</t>
         </is>
       </c>
       <c r="C162" t="n">
@@ -6098,20 +6098,20 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>right: int</t>
+          <t>right: COMMA_NON</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>, \)</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -6121,7 +6121,7 @@
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="G163" t="inlineStr">
@@ -6133,20 +6133,20 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>right: double</t>
+          <t>left: SHORT_REQ_S</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>double</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
@@ -6156,28 +6156,28 @@
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="G164" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>left: ID_FUNC</t>
+          <t>left: SHORT_REQ_S</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>[a-zA-Z_]</t>
+          <t>[a-zA-Z_] , \)</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -6203,12 +6203,12 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>right: [a-zA-Z_]</t>
+          <t>right: int</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>[a-zA-Z_]</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C166" t="n">
@@ -6238,16 +6238,16 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>right: TAIL_ID_FUNC</t>
+          <t>right: TAIL_TYPES</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>[a-zA-Z0-9_]</t>
+          <t>\s , \)</t>
         </is>
       </c>
       <c r="C167" t="n">
-        <v>168</v>
+        <v>124</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -6273,16 +6273,16 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>left: TAIL_ID_FUNC</t>
+          <t>right: ID_NON</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>[a-zA-Z0-9_]</t>
+          <t>[a-zA-Z_] , \)</t>
         </is>
       </c>
       <c r="C168" t="n">
-        <v>169</v>
+        <v>228</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -6308,20 +6308,20 @@
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>right: [a-zA-Z0-9_]</t>
+          <t>left: LENGTH</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>[a-zA-Z0-9_]</t>
+          <t>long</t>
         </is>
       </c>
       <c r="C169" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E169" t="inlineStr">
@@ -6336,23 +6336,23 @@
       </c>
       <c r="G169" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>right: TAIL_ID_FUNC</t>
+          <t>left: LENGTH</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>[a-zA-Z0-9_]</t>
+          <t>short</t>
         </is>
       </c>
       <c r="C170" t="n">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -6378,20 +6378,20 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>left: ID</t>
+          <t>right: long</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>[a-zA-Z_]</t>
+          <t>long</t>
         </is>
       </c>
       <c r="C171" t="n">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E171" t="inlineStr">
@@ -6401,7 +6401,7 @@
       </c>
       <c r="F171" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="G171" t="inlineStr">
@@ -6413,16 +6413,16 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>right: [a-zA-Z_]</t>
+          <t>right: short</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>[a-zA-Z_]</t>
+          <t>short</t>
         </is>
       </c>
       <c r="C172" t="n">
-        <v>173</v>
+        <v>0</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -6436,7 +6436,7 @@
       </c>
       <c r="F172" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="G172" t="inlineStr">
@@ -6448,16 +6448,16 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>right: INNERID</t>
+          <t>left: LONGTYPES</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>[a-zA-Z0-9_] \s ) ,</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C173" t="n">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -6476,19 +6476,19 @@
       </c>
       <c r="G173" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>left: INNERID</t>
+          <t>left: LONGTYPES</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>[a-zA-Z0-9_]</t>
+          <t>double</t>
         </is>
       </c>
       <c r="C174" t="n">
@@ -6511,27 +6511,27 @@
       </c>
       <c r="G174" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>left: INNERID</t>
+          <t>right: int</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>\s ) ,</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C175" t="n">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E175" t="inlineStr">
@@ -6541,7 +6541,7 @@
       </c>
       <c r="F175" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="G175" t="inlineStr">
@@ -6553,16 +6553,16 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>right: [a-zA-Z0-9_]</t>
+          <t>right: double</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>[a-zA-Z0-9_]</t>
+          <t>double</t>
         </is>
       </c>
       <c r="C176" t="n">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -6576,7 +6576,7 @@
       </c>
       <c r="F176" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="G176" t="inlineStr">
@@ -6588,16 +6588,16 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>right: INNERID</t>
+          <t>left: ID_FUNC</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>[a-zA-Z0-9_] \s ) ,</t>
+          <t>[a-zA-Z_]</t>
         </is>
       </c>
       <c r="C177" t="n">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -6623,25 +6623,25 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>right: S</t>
+          <t>right: [a-zA-Z_]</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>\s [ ) ,</t>
+          <t>[a-zA-Z_]</t>
         </is>
       </c>
       <c r="C178" t="n">
-        <v>9</v>
+        <v>179</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E178" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="F178" t="inlineStr">
@@ -6658,12 +6658,12 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>right: ARRAY</t>
+          <t>right: TAIL_ID_FUNC</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>[ ) ,</t>
+          <t>[a-zA-Z0-9_] \( \s \{</t>
         </is>
       </c>
       <c r="C179" t="n">
@@ -6693,12 +6693,12 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>left: ARRAY</t>
+          <t>left: TAIL_ID_FUNC</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>[</t>
+          <t>[a-zA-Z0-9_]</t>
         </is>
       </c>
       <c r="C180" t="n">
@@ -6728,16 +6728,16 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>left: ARRAY</t>
+          <t>left: TAIL_ID_FUNC</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>) ,</t>
+          <t>\( \s \{</t>
         </is>
       </c>
       <c r="C181" t="n">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -6763,12 +6763,12 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>right: [</t>
+          <t>right: [a-zA-Z0-9_]</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>[</t>
+          <t>[a-zA-Z0-9_]</t>
         </is>
       </c>
       <c r="C182" t="n">
@@ -6798,16 +6798,16 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>right: S</t>
+          <t>right: TAIL_ID_FUNC</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>\s [1-9]</t>
+          <t>[a-zA-Z0-9_] \( \s \{</t>
         </is>
       </c>
       <c r="C183" t="n">
-        <v>9</v>
+        <v>180</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -6816,7 +6816,7 @@
       </c>
       <c r="E183" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="F183" t="inlineStr">
@@ -6833,16 +6833,16 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>right: OP</t>
+          <t>right: e</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>[1-9]</t>
+          <t>\( \s \{</t>
         </is>
       </c>
       <c r="C184" t="n">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -6851,12 +6851,12 @@
       </c>
       <c r="E184" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="F184" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="G184" t="inlineStr">
@@ -6868,16 +6868,16 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>right: S</t>
+          <t>left: ID</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>\s ]</t>
+          <t>[a-zA-Z_]</t>
         </is>
       </c>
       <c r="C185" t="n">
-        <v>9</v>
+        <v>186</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -6886,7 +6886,7 @@
       </c>
       <c r="E185" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="F185" t="inlineStr">
@@ -6903,12 +6903,12 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>right: ]</t>
+          <t>right: [a-zA-Z_]</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>]</t>
+          <t>[a-zA-Z_]</t>
         </is>
       </c>
       <c r="C186" t="n">
@@ -6938,16 +6938,16 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>right: S</t>
+          <t>right: INNERID</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>\s [ ) ,</t>
+          <t>[a-zA-Z0-9_] \s \[ , \)</t>
         </is>
       </c>
       <c r="C187" t="n">
-        <v>9</v>
+        <v>188</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -6956,7 +6956,7 @@
       </c>
       <c r="E187" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="F187" t="inlineStr">
@@ -6973,16 +6973,16 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>right: ARRAY</t>
+          <t>left: INNERID</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>[ ) ,</t>
+          <t>[a-zA-Z0-9_]</t>
         </is>
       </c>
       <c r="C188" t="n">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -7001,23 +7001,23 @@
       </c>
       <c r="G188" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>right: e</t>
+          <t>left: INNERID</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>) ,</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="C189" t="n">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -7031,28 +7031,28 @@
       </c>
       <c r="F189" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="G189" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>left: OP</t>
+          <t>left: INNERID</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>[1-9]</t>
+          <t>\[ , \)</t>
         </is>
       </c>
       <c r="C190" t="n">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -7078,12 +7078,12 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>right: [1-9]</t>
+          <t>right: [a-zA-Z0-9_]</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>[1-9]</t>
+          <t>[a-zA-Z0-9_]</t>
         </is>
       </c>
       <c r="C191" t="n">
@@ -7113,16 +7113,16 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>right: OP1</t>
+          <t>right: INNERID</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>[0-9] \s ]</t>
+          <t>[a-zA-Z0-9_] \s \[ , \)</t>
         </is>
       </c>
       <c r="C192" t="n">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -7148,16 +7148,16 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>left: OP1</t>
+          <t>right: REQ_S</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>[0-9]</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="C193" t="n">
-        <v>195</v>
+        <v>11</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -7166,7 +7166,7 @@
       </c>
       <c r="E193" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="F193" t="inlineStr">
@@ -7176,23 +7176,23 @@
       </c>
       <c r="G193" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>left: OP1</t>
+          <t>right: ARRAY</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>\s ]</t>
+          <t>\[ , \)</t>
         </is>
       </c>
       <c r="C194" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -7218,12 +7218,12 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>right: [0-9]</t>
+          <t>right: ARRAY</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>[0-9]</t>
+          <t>\[ , \)</t>
         </is>
       </c>
       <c r="C195" t="n">
@@ -7231,7 +7231,7 @@
       </c>
       <c r="D195" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E195" t="inlineStr">
@@ -7253,16 +7253,16 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>right: OP1</t>
+          <t>left: ARRAY</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>[0-9] \s ]</t>
+          <t>\[</t>
         </is>
       </c>
       <c r="C196" t="n">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -7281,23 +7281,23 @@
       </c>
       <c r="G196" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>right: e</t>
+          <t>left: ARRAY</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>\s ]</t>
+          <t>, \)</t>
         </is>
       </c>
       <c r="C197" t="n">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -7311,7 +7311,7 @@
       </c>
       <c r="F197" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="G197" t="inlineStr">
@@ -7323,20 +7323,20 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>left: PARAMS0</t>
+          <t>right: \[</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>\[</t>
         </is>
       </c>
       <c r="C198" t="n">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E198" t="inlineStr">
@@ -7351,23 +7351,23 @@
       </c>
       <c r="G198" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>left: PARAMS0</t>
+          <t>right: S</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>unsigned signed int double float char long short void</t>
+          <t>\s [1-9]</t>
         </is>
       </c>
       <c r="C199" t="n">
-        <v>203</v>
+        <v>7</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -7376,7 +7376,7 @@
       </c>
       <c r="E199" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="F199" t="inlineStr">
@@ -7386,23 +7386,23 @@
       </c>
       <c r="G199" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>left: PARAMS0</t>
+          <t>right: OP</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>[1-9]</t>
         </is>
       </c>
       <c r="C200" t="n">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -7411,7 +7411,7 @@
       </c>
       <c r="E200" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="F200" t="inlineStr">
@@ -7428,16 +7428,16 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>right: REQ_S</t>
+          <t>right: S</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>\s \]</t>
         </is>
       </c>
       <c r="C201" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -7463,20 +7463,20 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>right: PARAMS</t>
+          <t>right: \]</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>unsigned signed int double float char long short void</t>
+          <t>\]</t>
         </is>
       </c>
       <c r="C202" t="n">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E202" t="inlineStr">
@@ -7498,16 +7498,16 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>right: PARAMS</t>
+          <t>right: S</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>unsigned signed int double float char long short void</t>
+          <t>\s \[ , \)</t>
         </is>
       </c>
       <c r="C203" t="n">
-        <v>205</v>
+        <v>7</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -7516,7 +7516,7 @@
       </c>
       <c r="E203" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="F203" t="inlineStr">
@@ -7533,16 +7533,16 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>right: e</t>
+          <t>right: ARRAY</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>\[ , \)</t>
         </is>
       </c>
       <c r="C204" t="n">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -7556,7 +7556,7 @@
       </c>
       <c r="F204" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="G204" t="inlineStr">
@@ -7568,16 +7568,16 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>left: PARAMS</t>
+          <t>right: e</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>unsigned signed int double float char long short</t>
+          <t>, \)</t>
         </is>
       </c>
       <c r="C205" t="n">
-        <v>207</v>
+        <v>0</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -7591,28 +7591,28 @@
       </c>
       <c r="F205" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="G205" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>left: PARAMS</t>
+          <t>left: OP</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>void</t>
+          <t>[1-9]</t>
         </is>
       </c>
       <c r="C206" t="n">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -7638,20 +7638,20 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>right: MOD_TYPE_NONVOID_PARAMS</t>
+          <t>right: [1-9]</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>unsigned signed int double float char long short</t>
+          <t>[1-9]</t>
         </is>
       </c>
       <c r="C207" t="n">
-        <v>99</v>
+        <v>208</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E207" t="inlineStr">
@@ -7673,16 +7673,16 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>right: VOID</t>
+          <t>right: OP1</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>void</t>
+          <t>[0-9] \] \s</t>
         </is>
       </c>
       <c r="C208" t="n">
-        <v>55</v>
+        <v>209</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -7691,7 +7691,7 @@
       </c>
       <c r="E208" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="F208" t="inlineStr">
@@ -7708,16 +7708,16 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>right: S</t>
+          <t>left: OP1</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>\s )</t>
+          <t>[0-9]</t>
         </is>
       </c>
       <c r="C209" t="n">
-        <v>9</v>
+        <v>211</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -7736,23 +7736,23 @@
       </c>
       <c r="G209" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>left: PARAMS_NONVOID</t>
+          <t>left: OP1</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>unsigned signed int double float char long short</t>
+          <t>\] \s</t>
         </is>
       </c>
       <c r="C210" t="n">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -7778,20 +7778,20 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>right: MOD_TYPE_NONVOID_PARAMS</t>
+          <t>right: [0-9]</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>unsigned signed int double float char long short</t>
+          <t>[0-9]</t>
         </is>
       </c>
       <c r="C211" t="n">
-        <v>99</v>
+        <v>212</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E211" t="inlineStr">
@@ -7813,16 +7813,16 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>left: ID_NON</t>
+          <t>right: OP1</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>[a-zA-Z_]</t>
+          <t>[0-9] \] \s</t>
         </is>
       </c>
       <c r="C212" t="n">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -7841,23 +7841,23 @@
       </c>
       <c r="G212" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>left: ID_NON</t>
+          <t>right: e</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>, )</t>
+          <t>\] \s</t>
         </is>
       </c>
       <c r="C213" t="n">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -7871,7 +7871,7 @@
       </c>
       <c r="F213" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="G213" t="inlineStr">
@@ -7883,16 +7883,16 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>right: ID</t>
+          <t>left: PARAMS0</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>[a-zA-Z_]</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="C214" t="n">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -7901,7 +7901,7 @@
       </c>
       <c r="E214" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="F214" t="inlineStr">
@@ -7911,23 +7911,23 @@
       </c>
       <c r="G214" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>right: COMMA_NON</t>
+          <t>left: PARAMS0</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>, )</t>
+          <t>unsigned signed int double float char long short void</t>
         </is>
       </c>
       <c r="C215" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -7946,23 +7946,23 @@
       </c>
       <c r="G215" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>right: COMMA_NON</t>
+          <t>left: PARAMS0</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>, )</t>
+          <t>\)</t>
         </is>
       </c>
       <c r="C216" t="n">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -7988,16 +7988,16 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>left: COMMA_NON</t>
+          <t>right: REQ_S</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>,</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="C217" t="n">
-        <v>219</v>
+        <v>11</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -8006,7 +8006,7 @@
       </c>
       <c r="E217" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="F217" t="inlineStr">
@@ -8016,23 +8016,23 @@
       </c>
       <c r="G217" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>left: COMMA_NON</t>
+          <t>right: PARAMS</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>unsigned signed int double float char long short void</t>
         </is>
       </c>
       <c r="C218" t="n">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -8058,20 +8058,20 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>right: ,</t>
+          <t>right: PARAMS</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>,</t>
+          <t>unsigned signed int double float char long short void</t>
         </is>
       </c>
       <c r="C219" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E219" t="inlineStr">
@@ -8093,16 +8093,16 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>right: S</t>
+          <t>right: e</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>\s unsigned signed int double float char long short ...</t>
+          <t>\)</t>
         </is>
       </c>
       <c r="C220" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -8111,12 +8111,12 @@
       </c>
       <c r="E220" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="F220" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="G220" t="inlineStr">
@@ -8128,12 +8128,12 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>right: TAIL</t>
+          <t>left: PARAMS</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>unsigned signed int double float char long short ...</t>
+          <t>unsigned signed int double float char long short</t>
         </is>
       </c>
       <c r="C221" t="n">
@@ -8156,23 +8156,23 @@
       </c>
       <c r="G221" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>right: e</t>
+          <t>left: PARAMS</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>void</t>
         </is>
       </c>
       <c r="C222" t="n">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -8186,7 +8186,7 @@
       </c>
       <c r="F222" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="G222" t="inlineStr">
@@ -8198,7 +8198,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>left: TAIL</t>
+          <t>right: MOD_TYPE_NONVOID_PARAMS</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
@@ -8207,7 +8207,7 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>225</v>
+        <v>100</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -8226,23 +8226,23 @@
       </c>
       <c r="G223" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>left: TAIL</t>
+          <t>right: VOID</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>...</t>
+          <t>void</t>
         </is>
       </c>
       <c r="C224" t="n">
-        <v>226</v>
+        <v>56</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -8251,7 +8251,7 @@
       </c>
       <c r="E224" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="F224" t="inlineStr">
@@ -8268,16 +8268,16 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>right: PARAMS_NONVOID</t>
+          <t>right: S</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>unsigned signed int double float char long short</t>
+          <t>\s \)</t>
         </is>
       </c>
       <c r="C225" t="n">
-        <v>210</v>
+        <v>7</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -8303,33 +8303,593 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>right: ...</t>
+          <t>left: PARAMS_NONVOID</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>...</t>
+          <t>unsigned signed int double float char long short</t>
         </is>
       </c>
       <c r="C226" t="n">
+        <v>227</v>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>right: MOD_TYPE_NONVOID_PARAMS</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>unsigned signed int double float char long short</t>
+        </is>
+      </c>
+      <c r="C227" t="n">
+        <v>100</v>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>left: ID_NON</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>[a-zA-Z_]</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>230</v>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>left: ID_NON</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>, \)</t>
+        </is>
+      </c>
+      <c r="C229" t="n">
+        <v>232</v>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>right: ID</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>[a-zA-Z_]</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>185</v>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>right: COMMA_NON</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>, \)</t>
+        </is>
+      </c>
+      <c r="C231" t="n">
+        <v>233</v>
+      </c>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F231" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>right: COMMA_NON</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>, \)</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>233</v>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>left: COMMA_NON</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="C233" t="n">
+        <v>235</v>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>left: COMMA_NON</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>\)</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>238</v>
+      </c>
+      <c r="D234" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E234" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>right: ,</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="C235" t="n">
+        <v>236</v>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>right: S</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>\s unsigned signed int double float char long short \.\.\.</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>7</v>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>right: TAIL</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>unsigned signed int double float char long short \.\.\.</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>239</v>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>right: e</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>\)</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
         <v>0</v>
       </c>
-      <c r="D226" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="E226" t="inlineStr">
-        <is>
-          <t>False</t>
-        </is>
-      </c>
-      <c r="F226" t="inlineStr">
-        <is>
-          <t>True</t>
-        </is>
-      </c>
-      <c r="G226" t="inlineStr">
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>left: TAIL</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>unsigned signed int double float char long short</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>241</v>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>left: TAIL</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>\.\.\.</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>242</v>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>right: PARAMS_NONVOID</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>unsigned signed int double float char long short</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>226</v>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>right: \.\.\.</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>\.\.\.</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>0</v>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
         <is>
           <t>True</t>
         </is>
@@ -8346,7 +8906,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L82"/>
+  <dimension ref="A1:L86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8454,22 +9014,22 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>} ⊥</t>
+          <t>\} ⊥</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>} ⊥</t>
+          <t>\} ⊥</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>} ⊥</t>
+          <t>\} ⊥</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>} ⊥</t>
+          <t>\} ⊥</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -8491,344 +9051,344 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>namespace</t>
+          <t>namespace e</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>namespace</t>
+          <t>namespace e</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>namespace void</t>
+          <t>namespace void e</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>namespace unsigned signed int double float char long short void</t>
+          <t>namespace unsigned signed int double float char long short void e</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>namespace unsigned signed int double float char long short void</t>
+          <t>namespace unsigned signed int double float char long short void e</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>namespace unsigned signed int double float char long short void</t>
+          <t>namespace unsigned signed int double float char long short void \} ⊥</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>K0 -&gt; e</t>
+          <t>S -&gt; REQ_S</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>∅</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>; [1-9] \( \) \.\.\. \[ \] \{ \} char double float int long namespace short signed unsigned void ⊥</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>, ; [1-9] [a-zA-Z_] \( \) \.\.\. \[ \] \{ \} char double float int long namespace short signed unsigned void ⊥</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>, ; [1-9] [a-zA-Z_] \( \) \.\.\. \[ \] \{ \} char double float int long namespace short signed unsigned void ⊥</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>, ; [1-9] [a-zA-Z_] \( \) \.\.\. \[ \] \{ \} char double float int long namespace short signed unsigned void ⊥</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>} ⊥</t>
+          <t>\s</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>S -&gt; REQ_S</t>
+          <t>S -&gt; e</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>∅</t>
+          <t>e</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>e</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>e</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>e</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>e</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>\s</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>( ) ... ; [ [1-9] ] char double float int long namespace short signed unsigned void { }</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>( ) , ... ; [ [1-9] [a-zA-Z_] ] char double float int long namespace short signed unsigned void { }</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>( ) , ... ; [ [1-9] [a-zA-Z_] ] char double float int long namespace short signed unsigned void { }</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>( ) , ... ; [ [1-9] [a-zA-Z_] ] char double float int long namespace short signed unsigned void { }</t>
+          <t>e</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>, ; [1-9] [a-zA-Z_] \( \) \.\.\. \[ \] \{ \} char double float int long namespace short signed unsigned void ⊥</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>S -&gt; e</t>
+          <t>REQ_S -&gt; \s S</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[a-zA-Z_] \[ char double float int long namespace short signed unsigned void ⊥</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>, ; [1-9] [a-zA-Z_] \( \) \.\.\. \[ \] \{ \} char double float int long namespace short signed unsigned void ⊥</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>, ; [1-9] [a-zA-Z_] \( \) \.\.\. \[ \] \{ \} char double float int long namespace short signed unsigned void ⊥</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>, ; [1-9] [a-zA-Z_] \( \) \.\.\. \[ \] \{ \} char double float int long namespace short signed unsigned void ⊥</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>( ) , ... ; [ [1-9] [a-zA-Z_] ] char double float int long namespace short signed unsigned void { }</t>
+          <t>\s</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>REQ_S -&gt; \s S</t>
+          <t>INIT -&gt; namespace REQ_S ID_FUNC S \{ K0 \} K0</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>namespace</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>namespace</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>namespace</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>namespace</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>namespace</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>namespace</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>[a-zA-Z_] char double float int long namespace short signed unsigned void</t>
+          <t>⊥</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>( ) ... ; [ [1-9] [a-zA-Z_] ] char double float int long namespace short signed unsigned void { }</t>
+          <t>\} ⊥</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>( ) , ... ; [ [1-9] [a-zA-Z_] ] char double float int long namespace short signed unsigned void { }</t>
+          <t>\} ⊥</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>( ) , ... ; [ [1-9] [a-zA-Z_] ] char double float int long namespace short signed unsigned void { }</t>
+          <t>\} ⊥</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>namespace</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>INIT -&gt; namespace REQ_S ID_FUNC S { K0 } K0</t>
+          <t>INIT -&gt; MOD_TYPE ID_FUNC S \( PARAMS0 \) S BODY K0</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>namespace</t>
+          <t>∅</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>namespace</t>
+          <t>∅</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>namespace</t>
+          <t>void</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>namespace</t>
+          <t>unsigned signed int double float char long short void</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>namespace</t>
+          <t>unsigned signed int double float char long short void</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>namespace</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>⊥</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>} ⊥</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>} ⊥</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>} ⊥</t>
+          <t>unsigned signed int double float char long short void</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>namespace</t>
+          <t>unsigned signed int double float char long short void</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>INIT -&gt; MOD_TYPE ID_FUNC S ( PARAMS0 ) S BODY K0</t>
+          <t>INIT -&gt; e</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>∅</t>
+          <t>e</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>∅</t>
+          <t>e</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>void</t>
+          <t>e</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>unsigned signed int double float char long short void</t>
+          <t>e</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>unsigned signed int double float char long short void</t>
+          <t>e</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>unsigned signed int double float char long short void</t>
+          <t>e</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>unsigned signed int double float char long short void</t>
+          <t>\} ⊥</t>
         </is>
       </c>
     </row>
@@ -8870,22 +9430,22 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>\s char double float int long namespace short signed unsigned void ⊥</t>
+          <t>\s ⊥</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>\s char double float int long namespace short signed unsigned void } ⊥</t>
+          <t>\s \} ⊥</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>\s char double float int long namespace short signed unsigned void } ⊥</t>
+          <t>\s \} ⊥</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>\s char double float int long namespace short signed unsigned void } ⊥</t>
+          <t>\s \} ⊥</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -8897,42 +9457,42 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>BODY -&gt; { S }</t>
+          <t>BODY -&gt; \{ S \}</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>{</t>
+          <t>\{</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>{</t>
+          <t>\{</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{</t>
+          <t>\{</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>{</t>
+          <t>\{</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>{</t>
+          <t>\{</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>{</t>
+          <t>\{</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>{</t>
+          <t>\{</t>
         </is>
       </c>
     </row>
@@ -9001,7 +9561,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>MOD_TYPE -&gt; VOID</t>
+          <t>MOD_TYPE -&gt; VOID REQ_S</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -9286,22 +9846,22 @@
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>) [a-zA-Z_] \s</t>
+          <t>\) \s</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>) [a-zA-Z_] \s</t>
+          <t>\) \s</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>) [a-zA-Z_] \s</t>
+          <t>\) \s</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
         <is>
-          <t>) [a-zA-Z_] \s</t>
+          <t>\) \s</t>
         </is>
       </c>
       <c r="L18" t="inlineStr">
@@ -10036,22 +10596,22 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>\)</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>\)</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>\)</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>\)</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -10141,17 +10701,17 @@
       <c r="H35" t="inlineStr"/>
       <c r="I35" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>\)</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>\)</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>\)</t>
         </is>
       </c>
       <c r="L35" t="inlineStr">
@@ -10205,7 +10765,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>TYPE_PARAMS -&gt; float</t>
+          <t>TYPE_PARAMS -&gt; float TAIL_TYPES</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -10247,7 +10807,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>TYPE_PARAMS -&gt; char</t>
+          <t>TYPE_PARAMS -&gt; char TAIL_TYPES</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -10373,7 +10933,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>INT_PARAMS -&gt; REQ_S INT_REQ_S</t>
+          <t>TAIL_TYPES -&gt; REQ_S ID_NON</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -10409,17 +10969,17 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>\)</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>\)</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>\)</t>
         </is>
       </c>
       <c r="L41" t="inlineStr">
@@ -10431,49 +10991,49 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>INT_PARAMS -&gt; e</t>
+          <t>TAIL_TYPES -&gt; COMMA_NON</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>∅</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>, e</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>, e</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>, e</t>
         </is>
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>, e</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>, e</t>
         </is>
       </c>
       <c r="L42" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>, \)</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>INT_REQ_S -&gt; LENGTH</t>
+          <t>INT_PARAMS -&gt; REQ_S INT_REQ_S</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -10483,55 +11043,55 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>long short</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>long short</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>long short</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>long short</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>long short</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>\)</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>\)</t>
         </is>
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>\)</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
         <is>
-          <t>long short</t>
+          <t>\s</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>INT_REQ_S -&gt; ID_NON</t>
+          <t>INT_PARAMS -&gt; COMMA_NON</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -10541,39 +11101,39 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>∅</t>
+          <t>, e</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>[a-zA-Z_] , e</t>
+          <t>, e</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>[a-zA-Z_] , e</t>
+          <t>, e</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>[a-zA-Z_] , e</t>
+          <t>, e</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>[a-zA-Z_] , e</t>
+          <t>, e</t>
         </is>
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>[a-zA-Z_] , )</t>
+          <t>, \)</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>DOUBLE_PARAMS -&gt; REQ_S DOUBLE_REQ_S</t>
+          <t>INT_REQ_S -&gt; LENGTH TAIL_TYPES</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -10583,155 +11143,155 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>long short</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>long short</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>long short</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>long short</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>long short</t>
         </is>
       </c>
       <c r="H45" t="inlineStr"/>
       <c r="I45" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>\)</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>\)</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>\)</t>
         </is>
       </c>
       <c r="L45" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>long short</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>DOUBLE_PARAMS -&gt; e</t>
+          <t>INT_REQ_S -&gt; ID_NON</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>∅</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>∅</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>[a-zA-Z_] , e</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>[a-zA-Z_] , e</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>[a-zA-Z_] , e</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>[a-zA-Z_] , e</t>
         </is>
       </c>
       <c r="L46" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>[a-zA-Z_] , \)</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>DOUBLE_REQ_S -&gt; long</t>
+          <t>DOUBLE_PARAMS -&gt; REQ_S DOUBLE_REQ_S</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>∅</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="H47" t="inlineStr"/>
       <c r="I47" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>\)</t>
         </is>
       </c>
       <c r="J47" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>\)</t>
         </is>
       </c>
       <c r="K47" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>\)</t>
         </is>
       </c>
       <c r="L47" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>\s</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>DOUBLE_REQ_S -&gt; ID_NON</t>
+          <t>DOUBLE_PARAMS -&gt; COMMA_NON</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -10741,139 +11301,139 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>∅</t>
+          <t>, e</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>[a-zA-Z_] , e</t>
+          <t>, e</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>[a-zA-Z_] , e</t>
+          <t>, e</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>[a-zA-Z_] , e</t>
+          <t>, e</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>[a-zA-Z_] , e</t>
+          <t>, e</t>
         </is>
       </c>
       <c r="L48" t="inlineStr">
         <is>
-          <t>[a-zA-Z_] , )</t>
+          <t>, \)</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>LONG_PARAMS -&gt; REQ_S LONG_REQ_S</t>
+          <t>DOUBLE_REQ_S -&gt; long TAIL_TYPES</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>∅</t>
+          <t>long</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>long</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>long</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>long</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>long</t>
         </is>
       </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>\)</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>\)</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>\)</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>long</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>LONG_PARAMS -&gt; e</t>
+          <t>DOUBLE_REQ_S -&gt; ID_NON</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>∅</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>∅</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>[a-zA-Z_] , e</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>[a-zA-Z_] , e</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>[a-zA-Z_] , e</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>[a-zA-Z_] , e</t>
         </is>
       </c>
       <c r="L50" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>[a-zA-Z_] , \)</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>LONG_REQ_S -&gt; LONGTYPES</t>
+          <t>LONG_PARAMS -&gt; REQ_S LONG_REQ_S</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -10883,55 +11443,55 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>int double</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>int double</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>int double</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
         <is>
-          <t>int double</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>int double</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>\)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>\)</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>\)</t>
         </is>
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>int double</t>
+          <t>\s</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>LONG_REQ_S -&gt; ID_NON</t>
+          <t>LONG_PARAMS -&gt; COMMA_NON</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -10941,39 +11501,39 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>∅</t>
+          <t>, e</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>[a-zA-Z_] , e</t>
+          <t>, e</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>[a-zA-Z_] , e</t>
+          <t>, e</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>[a-zA-Z_] , e</t>
+          <t>, e</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>[a-zA-Z_] , e</t>
+          <t>, e</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>[a-zA-Z_] , )</t>
+          <t>, \)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SHORT_PARAMS -&gt; REQ_S SHORT_REQ_S</t>
+          <t>LONG_REQ_S -&gt; LONGTYPES TAIL_TYPES</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -10983,155 +11543,155 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>int double</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>int double</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>int double</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>int double</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>int double</t>
         </is>
       </c>
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>\)</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>\)</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>\)</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>int double</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SHORT_PARAMS -&gt; e</t>
+          <t>LONG_REQ_S -&gt; ID_NON</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>∅</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>∅</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>[a-zA-Z_] , e</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>[a-zA-Z_] , e</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>[a-zA-Z_] , e</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>[a-zA-Z_] , e</t>
         </is>
       </c>
       <c r="L54" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>[a-zA-Z_] , \)</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SHORT_REQ_S -&gt; int</t>
+          <t>SHORT_PARAMS -&gt; REQ_S SHORT_REQ_S</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>∅</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>\)</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>\)</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>\)</t>
         </is>
       </c>
       <c r="L55" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>\s</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SHORT_REQ_S -&gt; ID_NON</t>
+          <t>SHORT_PARAMS -&gt; COMMA_NON</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -11141,173 +11701,169 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>∅</t>
+          <t>, e</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>[a-zA-Z_] , e</t>
+          <t>, e</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>[a-zA-Z_] , e</t>
+          <t>, e</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>[a-zA-Z_] , e</t>
+          <t>, e</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>[a-zA-Z_] , e</t>
+          <t>, e</t>
         </is>
       </c>
       <c r="L56" t="inlineStr">
         <is>
-          <t>[a-zA-Z_] , )</t>
+          <t>, \)</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>LENGTH -&gt; long</t>
+          <t>SHORT_REQ_S -&gt; int TAIL_TYPES</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>int</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>int</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>int</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>int</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>\s</t>
-        </is>
-      </c>
+          <t>int</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr"/>
       <c r="I57" t="inlineStr">
         <is>
-          <t>) \s</t>
+          <t>\)</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>) \s</t>
+          <t>\)</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
         <is>
-          <t>) \s</t>
+          <t>\)</t>
         </is>
       </c>
       <c r="L57" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>int</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>LENGTH -&gt; short</t>
+          <t>SHORT_REQ_S -&gt; ID_NON</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>∅</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>∅</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>[a-zA-Z_] , e</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>[a-zA-Z_] , e</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>[a-zA-Z_] , e</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>[a-zA-Z_] , e</t>
         </is>
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>[a-zA-Z_] , \)</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>LONGTYPES -&gt; int</t>
+          <t>LENGTH -&gt; long</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>long</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>long</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>long</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>long</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>long</t>
         </is>
       </c>
       <c r="H59" t="inlineStr">
@@ -11317,195 +11873,175 @@
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>) \s</t>
+          <t>\) \s</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>) \s</t>
+          <t>\) \s</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>) \s</t>
+          <t>\) \s</t>
         </is>
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>long</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>LONGTYPES -&gt; double</t>
+          <t>LENGTH -&gt; short</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>double</t>
+          <t>short</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>double</t>
+          <t>short</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>double</t>
+          <t>short</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>double</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>double</t>
+          <t>short</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>double</t>
+          <t>short</t>
         </is>
       </c>
       <c r="L60" t="inlineStr">
         <is>
-          <t>double</t>
+          <t>short</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>ID_FUNC -&gt; [a-zA-Z_] TAIL_ID_FUNC</t>
+          <t>LONGTYPES -&gt; int</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>[a-zA-Z_]</t>
+          <t>int</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>[a-zA-Z_]</t>
+          <t>int</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>[a-zA-Z_]</t>
+          <t>int</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>[a-zA-Z_]</t>
+          <t>int</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>[a-zA-Z_]</t>
+          <t>int</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>[a-zA-Z_]</t>
+          <t>int</t>
         </is>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>( \s {</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>( \s {</t>
+          <t>\) \s</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>( \s {</t>
+          <t>\) \s</t>
         </is>
       </c>
       <c r="K61" t="inlineStr">
         <is>
-          <t>( \s {</t>
+          <t>\) \s</t>
         </is>
       </c>
       <c r="L61" t="inlineStr">
         <is>
-          <t>[a-zA-Z_]</t>
+          <t>int</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>TAIL_ID_FUNC -&gt; [a-zA-Z0-9_] TAIL_ID_FUNC</t>
+          <t>LONGTYPES -&gt; double</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>[a-zA-Z0-9_]</t>
+          <t>double</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>[a-zA-Z0-9_]</t>
+          <t>double</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>[a-zA-Z0-9_]</t>
+          <t>double</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>[a-zA-Z0-9_]</t>
+          <t>double</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>[a-zA-Z0-9_]</t>
+          <t>double</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>[a-zA-Z0-9_]</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>( \s {</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>( \s {</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>( \s {</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>( \s {</t>
+          <t>double</t>
         </is>
       </c>
       <c r="L62" t="inlineStr">
         <is>
-          <t>[a-zA-Z0-9_]</t>
+          <t>double</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>ID -&gt; [a-zA-Z_] INNERID</t>
+          <t>ID_FUNC -&gt; [a-zA-Z_] TAIL_ID_FUNC</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -11540,22 +12076,22 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>,</t>
+          <t>\( \s \{</t>
         </is>
       </c>
       <c r="I63" t="inlineStr">
         <is>
-          <t>) ,</t>
+          <t>\( \s \{</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>) ,</t>
+          <t>\( \s \{</t>
         </is>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>) ,</t>
+          <t>\( \s \{</t>
         </is>
       </c>
       <c r="L63" t="inlineStr">
@@ -11567,7 +12103,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>INNERID -&gt; [a-zA-Z0-9_] INNERID</t>
+          <t>TAIL_ID_FUNC -&gt; [a-zA-Z0-9_] TAIL_ID_FUNC</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -11600,20 +12136,24 @@
           <t>[a-zA-Z0-9_]</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr"/>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>\( \s \{</t>
+        </is>
+      </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>,</t>
+          <t>\( \s \{</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>) ,</t>
+          <t>\( \s \{</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>) ,</t>
+          <t>\( \s \{</t>
         </is>
       </c>
       <c r="L64" t="inlineStr">
@@ -11625,12 +12165,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>INNERID -&gt; S ARRAY</t>
+          <t>TAIL_ID_FUNC -&gt; e</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>∅</t>
+          <t>e</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -11640,508 +12180,504 @@
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>\s e</t>
+          <t>e</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>\s e</t>
+          <t>e</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>\s e</t>
+          <t>e</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>\s e</t>
+          <t>e</t>
         </is>
       </c>
       <c r="L65" t="inlineStr">
         <is>
-          <t>\s ) ,</t>
+          <t>\( \s \{</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>ARRAY -&gt; [ S OP S ] S ARRAY</t>
+          <t>ID -&gt; [a-zA-Z_] INNERID</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>[</t>
+          <t>[a-zA-Z_]</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>[</t>
+          <t>[a-zA-Z_]</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>[</t>
+          <t>[a-zA-Z_]</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>[</t>
+          <t>[a-zA-Z_]</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>[</t>
+          <t>[a-zA-Z_]</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>[</t>
-        </is>
-      </c>
-      <c r="H66" t="inlineStr"/>
+          <t>[a-zA-Z_]</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>,</t>
+          <t>, \)</t>
         </is>
       </c>
       <c r="J66" t="inlineStr">
         <is>
-          <t>) ,</t>
+          <t>, \)</t>
         </is>
       </c>
       <c r="K66" t="inlineStr">
         <is>
-          <t>) ,</t>
+          <t>, \)</t>
         </is>
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>[</t>
+          <t>[a-zA-Z_]</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>ARRAY -&gt; e</t>
+          <t>INNERID -&gt; [a-zA-Z0-9_] INNERID</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>[a-zA-Z0-9_]</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>[a-zA-Z0-9_]</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>[a-zA-Z0-9_]</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>[a-zA-Z0-9_]</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>[a-zA-Z0-9_]</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>[a-zA-Z0-9_]</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>, \)</t>
+        </is>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>, \)</t>
         </is>
       </c>
       <c r="L67" t="inlineStr">
         <is>
-          <t>) ,</t>
+          <t>[a-zA-Z0-9_]</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>OP -&gt; [1-9] OP1</t>
+          <t>INNERID -&gt; REQ_S ARRAY</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>[1-9]</t>
+          <t>∅</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>[1-9]</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>[1-9]</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>[1-9]</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>[1-9]</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>[1-9]</t>
-        </is>
-      </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>\s ]</t>
-        </is>
-      </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>\s ]</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>\s ]</t>
-        </is>
-      </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>\s ]</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="L68" t="inlineStr">
         <is>
-          <t>[1-9]</t>
+          <t>\s</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>OP1 -&gt; [0-9] OP1</t>
+          <t>INNERID -&gt; ARRAY</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>[0-9]</t>
+          <t>∅</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>[0-9]</t>
+          <t>\[ e</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>[0-9]</t>
+          <t>\[ e</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>[0-9]</t>
+          <t>\[ e</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>[0-9]</t>
+          <t>\[ e</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>[0-9]</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>\s ]</t>
-        </is>
-      </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>\s ]</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
-        <is>
-          <t>\s ]</t>
-        </is>
-      </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>\s ]</t>
+          <t>\[ e</t>
         </is>
       </c>
       <c r="L69" t="inlineStr">
         <is>
-          <t>[0-9]</t>
+          <t>\[ , \)</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>OP1 -&gt; e</t>
+          <t>ARRAY -&gt; \[ S OP S \] S ARRAY</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>\[</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>\[</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>\[</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>\[</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>\[</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>\[</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr"/>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
+        <is>
+          <t>, \)</t>
+        </is>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>, \)</t>
         </is>
       </c>
       <c r="L70" t="inlineStr">
         <is>
-          <t>\s ]</t>
+          <t>\[</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>PARAMS0 -&gt; REQ_S PARAMS</t>
+          <t>ARRAY -&gt; e</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>∅</t>
+          <t>e</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>e</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>e</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>e</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>e</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>\s</t>
-        </is>
-      </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>)</t>
-        </is>
-      </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>)</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
-        <is>
-          <t>)</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>)</t>
+          <t>e</t>
         </is>
       </c>
       <c r="L71" t="inlineStr">
         <is>
-          <t>\s</t>
+          <t>, \)</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>PARAMS0 -&gt; PARAMS</t>
+          <t>OP -&gt; [1-9] OP1</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>∅</t>
+          <t>[1-9]</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>∅</t>
+          <t>[1-9]</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>void</t>
+          <t>[1-9]</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>unsigned signed int double float char long short void</t>
+          <t>[1-9]</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>unsigned signed int double float char long short void</t>
+          <t>[1-9]</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>unsigned signed int double float char long short void</t>
+          <t>[1-9]</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>\] \s</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>\] \s</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
+        <is>
+          <t>\] \s</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>\] \s</t>
         </is>
       </c>
       <c r="L72" t="inlineStr">
         <is>
-          <t>unsigned signed int double float char long short void</t>
+          <t>[1-9]</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>PARAMS0 -&gt; e</t>
+          <t>OP1 -&gt; [0-9] OP1</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>[0-9]</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>[0-9]</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>[0-9]</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>[0-9]</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>[0-9]</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>[0-9]</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>\] \s</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>\] \s</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
+        <is>
+          <t>\] \s</t>
+        </is>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>\] \s</t>
         </is>
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>[0-9]</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>PARAMS -&gt; MOD_TYPE_NONVOID_PARAMS</t>
+          <t>OP1 -&gt; e</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>∅</t>
+          <t>e</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>∅</t>
+          <t>e</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>unsigned signed int double float char long short</t>
+          <t>e</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>unsigned signed int double float char long short</t>
+          <t>e</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>unsigned signed int double float char long short</t>
+          <t>e</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>unsigned signed int double float char long short</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>)</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>)</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>)</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>)</t>
+          <t>e</t>
         </is>
       </c>
       <c r="L74" t="inlineStr">
         <is>
-          <t>unsigned signed int double float char long short</t>
+          <t>\] \s</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>PARAMS -&gt; VOID S</t>
+          <t>PARAMS0 -&gt; REQ_S PARAMS</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -12151,39 +12687,59 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>void</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>void</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>void</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>void</t>
+          <t>\s</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>void</t>
+          <t>\s</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>\)</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>\)</t>
+        </is>
+      </c>
+      <c r="J75" t="inlineStr">
+        <is>
+          <t>\)</t>
+        </is>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>\)</t>
         </is>
       </c>
       <c r="L75" t="inlineStr">
         <is>
-          <t>void</t>
+          <t>\s</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>PARAMS_NONVOID -&gt; MOD_TYPE_NONVOID_PARAMS</t>
+          <t>PARAMS0 -&gt; PARAMS</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -12198,108 +12754,76 @@
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>unsigned signed int double float char long short</t>
+          <t>void</t>
         </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>unsigned signed int double float char long short</t>
+          <t>unsigned signed int double float char long short void</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>unsigned signed int double float char long short</t>
+          <t>unsigned signed int double float char long short void</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>unsigned signed int double float char long short</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>)</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>)</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>)</t>
+          <t>unsigned signed int double float char long short void</t>
         </is>
       </c>
       <c r="L76" t="inlineStr">
         <is>
-          <t>unsigned signed int double float char long short</t>
+          <t>unsigned signed int double float char long short void</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>ID_NON -&gt; ID COMMA_NON</t>
+          <t>PARAMS0 -&gt; e</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>∅</t>
+          <t>e</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>[a-zA-Z_]</t>
+          <t>e</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>[a-zA-Z_]</t>
+          <t>e</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>[a-zA-Z_]</t>
+          <t>e</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>[a-zA-Z_]</t>
+          <t>e</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>[a-zA-Z_]</t>
-        </is>
-      </c>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>)</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
-        <is>
-          <t>)</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>)</t>
+          <t>e</t>
         </is>
       </c>
       <c r="L77" t="inlineStr">
         <is>
-          <t>[a-zA-Z_]</t>
+          <t>\)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>ID_NON -&gt; COMMA_NON</t>
+          <t>PARAMS -&gt; MOD_TYPE_NONVOID_PARAMS</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -12309,139 +12833,159 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>, e</t>
+          <t>∅</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>, e</t>
+          <t>unsigned signed int double float char long short</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>, e</t>
+          <t>unsigned signed int double float char long short</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>, e</t>
+          <t>unsigned signed int double float char long short</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>, e</t>
+          <t>unsigned signed int double float char long short</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>\)</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>\)</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>\)</t>
+        </is>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>\)</t>
         </is>
       </c>
       <c r="L78" t="inlineStr">
         <is>
-          <t>, )</t>
+          <t>unsigned signed int double float char long short</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>COMMA_NON -&gt; , S TAIL</t>
+          <t>PARAMS -&gt; VOID S</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>,</t>
+          <t>∅</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>,</t>
+          <t>void</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>,</t>
+          <t>void</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>,</t>
+          <t>void</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>,</t>
+          <t>void</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>,</t>
-        </is>
-      </c>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr">
-        <is>
-          <t>)</t>
-        </is>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>)</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>)</t>
+          <t>void</t>
         </is>
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>,</t>
+          <t>void</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>COMMA_NON -&gt; e</t>
+          <t>PARAMS_NONVOID -&gt; MOD_TYPE_NONVOID_PARAMS</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>∅</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>∅</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>unsigned signed int double float char long short</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>unsigned signed int double float char long short</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>unsigned signed int double float char long short</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>e</t>
+          <t>unsigned signed int double float char long short</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr"/>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>\)</t>
+        </is>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>\)</t>
+        </is>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>\)</t>
         </is>
       </c>
       <c r="L80" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>unsigned signed int double float char long short</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>TAIL -&gt; PARAMS_NONVOID</t>
+          <t>ID_NON -&gt; ID COMMA_NON</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -12451,251 +12995,455 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>∅</t>
+          <t>[a-zA-Z_]</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>∅</t>
+          <t>[a-zA-Z_]</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>unsigned signed int double float char long short</t>
+          <t>[a-zA-Z_]</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>unsigned signed int double float char long short</t>
+          <t>[a-zA-Z_]</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>unsigned signed int double float char long short</t>
+          <t>[a-zA-Z_]</t>
         </is>
       </c>
       <c r="H81" t="inlineStr"/>
       <c r="I81" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>\)</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>\)</t>
         </is>
       </c>
       <c r="K81" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>\)</t>
         </is>
       </c>
       <c r="L81" t="inlineStr">
         <is>
-          <t>unsigned signed int double float char long short</t>
+          <t>[a-zA-Z_]</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>TAIL -&gt; ...</t>
+          <t>ID_NON -&gt; COMMA_NON</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>...</t>
+          <t>∅</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>...</t>
+          <t>, e</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>...</t>
+          <t>, e</t>
         </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>...</t>
+          <t>, e</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>...</t>
+          <t>, e</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>...</t>
+          <t>, e</t>
         </is>
       </c>
       <c r="L82" t="inlineStr">
         <is>
-          <t>...</t>
+          <t>, \)</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>COMMA_NON -&gt; , S TAIL</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr"/>
+      <c r="I83" t="inlineStr">
+        <is>
+          <t>\)</t>
+        </is>
+      </c>
+      <c r="J83" t="inlineStr">
+        <is>
+          <t>\)</t>
+        </is>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>\)</t>
+        </is>
+      </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>,</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>COMMA_NON -&gt; e</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>e</t>
+        </is>
+      </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>\)</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>TAIL -&gt; PARAMS_NONVOID</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>∅</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>∅</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>∅</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>unsigned signed int double float char long short</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>unsigned signed int double float char long short</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>unsigned signed int double float char long short</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr"/>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>\)</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>\)</t>
+        </is>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>\)</t>
+        </is>
+      </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>unsigned signed int double float char long short</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>TAIL -&gt; \.\.\.</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>\.\.\.</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>\.\.\.</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>\.\.\.</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>\.\.\.</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>\.\.\.</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>\.\.\.</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>\.\.\.</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="156">
+  <mergeCells count="160">
+    <mergeCell ref="J66"/>
     <mergeCell ref="H53:H54"/>
-    <mergeCell ref="J69:J70"/>
     <mergeCell ref="I16:I17"/>
     <mergeCell ref="H59:H60"/>
     <mergeCell ref="H55:H56"/>
     <mergeCell ref="I63"/>
     <mergeCell ref="J59:J60"/>
+    <mergeCell ref="J75:J77"/>
     <mergeCell ref="I57:I58"/>
+    <mergeCell ref="K66"/>
     <mergeCell ref="K18"/>
-    <mergeCell ref="J61"/>
-    <mergeCell ref="H79:H80"/>
+    <mergeCell ref="J83:J84"/>
+    <mergeCell ref="H61:H62"/>
     <mergeCell ref="K27:K28"/>
     <mergeCell ref="J55:J56"/>
-    <mergeCell ref="K68"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="J72"/>
     <mergeCell ref="H45:H46"/>
+    <mergeCell ref="H67:H69"/>
     <mergeCell ref="J45:J46"/>
-    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="J67:J69"/>
     <mergeCell ref="H81:H82"/>
     <mergeCell ref="I43:I44"/>
     <mergeCell ref="K43:K44"/>
+    <mergeCell ref="K61:K62"/>
     <mergeCell ref="H47:H48"/>
     <mergeCell ref="J47:J48"/>
+    <mergeCell ref="H6"/>
     <mergeCell ref="I51:I52"/>
+    <mergeCell ref="J6"/>
     <mergeCell ref="I29:I30"/>
     <mergeCell ref="J31:J32"/>
     <mergeCell ref="H19:H24"/>
     <mergeCell ref="J35:J40"/>
+    <mergeCell ref="J80"/>
     <mergeCell ref="K53:K54"/>
-    <mergeCell ref="H8:H9"/>
     <mergeCell ref="I31:I32"/>
     <mergeCell ref="I35:I40"/>
-    <mergeCell ref="J8:J9"/>
     <mergeCell ref="J51:J52"/>
-    <mergeCell ref="H7"/>
+    <mergeCell ref="J73:J74"/>
     <mergeCell ref="I19:I24"/>
-    <mergeCell ref="J7"/>
     <mergeCell ref="J63"/>
     <mergeCell ref="K19:K24"/>
-    <mergeCell ref="I62"/>
+    <mergeCell ref="K55:K56"/>
     <mergeCell ref="K29:K30"/>
-    <mergeCell ref="K55:K56"/>
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="J57:J58"/>
     <mergeCell ref="J10:J11"/>
     <mergeCell ref="I45:I46"/>
+    <mergeCell ref="I70:I71"/>
     <mergeCell ref="H43:H44"/>
-    <mergeCell ref="K79:K80"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="J74:J75"/>
-    <mergeCell ref="K7"/>
+    <mergeCell ref="H7:H9"/>
+    <mergeCell ref="H83:H84"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="I85:I86"/>
     <mergeCell ref="H41:H42"/>
     <mergeCell ref="H49:H50"/>
-    <mergeCell ref="H71:H73"/>
+    <mergeCell ref="H2:H3"/>
     <mergeCell ref="J49:J50"/>
-    <mergeCell ref="J71:J73"/>
     <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K62"/>
+    <mergeCell ref="H85:H86"/>
     <mergeCell ref="K81:K82"/>
-    <mergeCell ref="H69:H70"/>
-    <mergeCell ref="J2:J4"/>
+    <mergeCell ref="K7:K9"/>
     <mergeCell ref="I33:I34"/>
-    <mergeCell ref="I2:I4"/>
+    <mergeCell ref="I73:I74"/>
+    <mergeCell ref="K2:K3"/>
     <mergeCell ref="J25:J26"/>
     <mergeCell ref="K57:K58"/>
+    <mergeCell ref="J85:J86"/>
     <mergeCell ref="H12:H13"/>
-    <mergeCell ref="K66:K67"/>
     <mergeCell ref="J12:J13"/>
-    <mergeCell ref="I76"/>
-    <mergeCell ref="K76"/>
+    <mergeCell ref="I66"/>
     <mergeCell ref="H14:H15"/>
     <mergeCell ref="I18"/>
     <mergeCell ref="J14:J15"/>
-    <mergeCell ref="H61"/>
-    <mergeCell ref="I68"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="K83:K84"/>
     <mergeCell ref="J64:J65"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="H72"/>
+    <mergeCell ref="I67:I69"/>
+    <mergeCell ref="H75:H77"/>
+    <mergeCell ref="K67:K69"/>
+    <mergeCell ref="K85:K86"/>
     <mergeCell ref="H29:H30"/>
-    <mergeCell ref="K61"/>
-    <mergeCell ref="H74:H75"/>
+    <mergeCell ref="I61:I62"/>
     <mergeCell ref="K45:K46"/>
     <mergeCell ref="H31:H32"/>
     <mergeCell ref="K59:K60"/>
     <mergeCell ref="H18"/>
-    <mergeCell ref="H76"/>
     <mergeCell ref="J18"/>
-    <mergeCell ref="J76"/>
     <mergeCell ref="I53:I54"/>
     <mergeCell ref="I47:I48"/>
     <mergeCell ref="H51:H52"/>
     <mergeCell ref="K47:K48"/>
+    <mergeCell ref="I6"/>
+    <mergeCell ref="K70:K71"/>
+    <mergeCell ref="I80"/>
     <mergeCell ref="H63"/>
     <mergeCell ref="K31:K32"/>
+    <mergeCell ref="K80"/>
     <mergeCell ref="H57:H58"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="J66:J67"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="I79:I80"/>
     <mergeCell ref="H16:H17"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="J68"/>
-    <mergeCell ref="I7"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="K73:K74"/>
+    <mergeCell ref="I72"/>
     <mergeCell ref="K63"/>
+    <mergeCell ref="K72"/>
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="I81:I82"/>
     <mergeCell ref="K10:K11"/>
     <mergeCell ref="J43:J44"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="J61:J62"/>
+    <mergeCell ref="I7:I9"/>
     <mergeCell ref="H33:H34"/>
     <mergeCell ref="J33:J34"/>
-    <mergeCell ref="I74:I75"/>
-    <mergeCell ref="H2:H4"/>
     <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K74:K75"/>
+    <mergeCell ref="H78:H79"/>
     <mergeCell ref="J29:J30"/>
     <mergeCell ref="I49:I50"/>
-    <mergeCell ref="I71:I73"/>
+    <mergeCell ref="J81:J82"/>
     <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J81:J82"/>
+    <mergeCell ref="I2:I3"/>
     <mergeCell ref="K49:K50"/>
+    <mergeCell ref="H80"/>
     <mergeCell ref="J53:J54"/>
+    <mergeCell ref="J78:J79"/>
     <mergeCell ref="H35:H40"/>
     <mergeCell ref="K33:K34"/>
     <mergeCell ref="K51:K52"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="K2:K4"/>
     <mergeCell ref="H64:H65"/>
     <mergeCell ref="I41:I42"/>
+    <mergeCell ref="H73:H74"/>
     <mergeCell ref="J19:J24"/>
-    <mergeCell ref="H62"/>
     <mergeCell ref="K41:K42"/>
-    <mergeCell ref="J62"/>
+    <mergeCell ref="K6"/>
+    <mergeCell ref="H70:H71"/>
     <mergeCell ref="I25:I26"/>
     <mergeCell ref="K35:K40"/>
-    <mergeCell ref="J79:J80"/>
+    <mergeCell ref="J70:J71"/>
     <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I83:I84"/>
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="J16:J17"/>
-    <mergeCell ref="I5:I6"/>
     <mergeCell ref="I14:I15"/>
     <mergeCell ref="K14:K15"/>
-    <mergeCell ref="I61"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="I55:I56"/>
-    <mergeCell ref="H68"/>
+    <mergeCell ref="I4:I5"/>
     <mergeCell ref="I64:I65"/>
-    <mergeCell ref="I69:I70"/>
-    <mergeCell ref="K69:K70"/>
+    <mergeCell ref="I78:I79"/>
     <mergeCell ref="J41:J42"/>
-    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="K78:K79"/>
     <mergeCell ref="I59:I60"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="I75:I77"/>
+    <mergeCell ref="K75:K77"/>
     <mergeCell ref="K25:K26"/>
-    <mergeCell ref="K71:K73"/>
     <mergeCell ref="K64:K65"/>
     <mergeCell ref="H25:H26"/>
+    <mergeCell ref="H66"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/4 курс/7_semester/ТЯПиМТ/theory_pl&tm/lr3/tests/LL.xlsx
+++ b/4 курс/7_semester/ТЯПиМТ/theory_pl&tm/lr3/tests/LL.xlsx
@@ -1186,7 +1186,7 @@
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>&lt;APPEND&gt;</t>
+          <t>&lt;NAMESPASE&gt;</t>
         </is>
       </c>
     </row>
@@ -14220,7 +14220,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>&lt;APPEND&gt;</t>
+          <t>&lt;NAMESPASE&gt;</t>
         </is>
       </c>
     </row>
